--- a/public/IMPORT_TNVED_6302_21_03.xlsx
+++ b/public/IMPORT_TNVED_6302_21_03.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="IMPORT_TNVED_6302" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Справочники" state="visible" r:id="rId5"/>
+    <sheet name="IMPORT_TNVED_6302" sheetId="1" r:id="rId1"/>
+    <sheet name="Справочники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="234">
   <si>
     <t>Код ТНВЭД</t>
   </si>
@@ -143,6 +144,9 @@
     <t>100% Хлопок</t>
   </si>
   <si>
+    <t>50х70</t>
+  </si>
+  <si>
     <t>6302100001</t>
   </si>
   <si>
@@ -152,565 +156,568 @@
     <t>На модерации</t>
   </si>
   <si>
+    <t>6302 Белье постельное, столовое, туалетное и кухонное</t>
+  </si>
+  <si>
+    <t>Наименование атрибута</t>
+  </si>
+  <si>
+    <t>Значение атрибута</t>
+  </si>
+  <si>
+    <t>Модель / артикул производителя(тип)</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>Модель / Артикул</t>
+  </si>
+  <si>
+    <t>САЛФЕТКИ ДЛЯ СТЕКЛЯННОЙ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t>ПОДОДЕЯЛЬНИК С ВЫРЕЗОМ</t>
+  </si>
+  <si>
+    <t>ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
+  </si>
+  <si>
+    <t>ПОДЗОР</t>
+  </si>
+  <si>
+    <t>ПРОСТЫНЯ</t>
+  </si>
+  <si>
+    <t>ПРОСТЫНЯ НА РЕЗИНКЕ</t>
+  </si>
+  <si>
+    <t>НАМАТРАСНИК</t>
+  </si>
+  <si>
+    <t>ПОКРЫВАЛО</t>
+  </si>
+  <si>
+    <t>НАВОЛОЧКА КВАДРАТНАЯ</t>
+  </si>
+  <si>
+    <t>НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
+  </si>
+  <si>
+    <t>КОМПЛЕКТ</t>
+  </si>
+  <si>
+    <t>ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ ДЛЯ РУК</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
+  </si>
+  <si>
+    <t>ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
+  </si>
+  <si>
+    <t>КОВРИК</t>
+  </si>
+  <si>
+    <t>ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
+  </si>
+  <si>
+    <t>ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
+  </si>
+  <si>
+    <t>АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
+  </si>
+  <si>
+    <t>ДОРОЖКА</t>
+  </si>
+  <si>
+    <t>КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
+  </si>
+  <si>
+    <t>ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
+  </si>
+  <si>
+    <t>ПОКРЫТИЕ ДЛЯ СТУЛА</t>
+  </si>
+  <si>
+    <t>ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
+  </si>
+  <si>
+    <t>САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
+  </si>
+  <si>
+    <t>САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
+  </si>
+  <si>
+    <t>СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
+  </si>
+  <si>
+    <t>БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>БЕЖЕВЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t>БЕЛО-РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t>БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t>БЕЛЫЙ/СЕРЫЙ</t>
+  </si>
+  <si>
+    <t>БИРЮЗОВЫЙ</t>
+  </si>
+  <si>
+    <t>БОРДОВЫЙ</t>
+  </si>
+  <si>
+    <t>БРОНЗОВЫЙ</t>
+  </si>
+  <si>
+    <t>В АССОРТИМЕНТЕ</t>
+  </si>
+  <si>
+    <t>ВАНИЛЬ</t>
+  </si>
+  <si>
+    <t>ВИШНЯ</t>
+  </si>
+  <si>
+    <t>ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t>ЖЁЛТЫЙ</t>
+  </si>
+  <si>
+    <t>ЗЕЛЁНЫЙ</t>
+  </si>
+  <si>
+    <t>ЗОЛОТИСТЫЙ</t>
+  </si>
+  <si>
+    <t>ЗОЛОТОЙ</t>
+  </si>
+  <si>
+    <t>ИЗУМРУДНЫЙ</t>
+  </si>
+  <si>
+    <t>КАПУЧИНО</t>
+  </si>
+  <si>
+    <t>КИРПИЧНЫЙ</t>
+  </si>
+  <si>
+    <t>КОРАЛЛОВЫЙ</t>
+  </si>
+  <si>
+    <t>КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t>КРАСНЫЙ</t>
+  </si>
+  <si>
+    <t>ЛАЙМ</t>
+  </si>
+  <si>
+    <t>ЛЕОПАРД</t>
+  </si>
+  <si>
+    <t>МАЛИНОВЫЙ</t>
+  </si>
+  <si>
+    <t>МЕДНЫЙ</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЙ</t>
+  </si>
+  <si>
+    <t>МЯТНЫЙ</t>
+  </si>
+  <si>
+    <t>НАТУРАЛЬНЫЙ</t>
+  </si>
+  <si>
+    <t>НИКЕЛЬ</t>
+  </si>
+  <si>
+    <t>ОЛИВКОВЫЙ</t>
+  </si>
+  <si>
+    <t>ОРАНЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>ПЕСОЧНЫЙ</t>
+  </si>
+  <si>
+    <t>ПЕРСИКОВЫЙ</t>
+  </si>
+  <si>
+    <t>ПРОЗРАЧНЫЙ</t>
+  </si>
+  <si>
+    <t>ПУРПУРНЫЙ</t>
+  </si>
+  <si>
+    <t>РАЗНОЦВЕТНЫЙ</t>
+  </si>
+  <si>
+    <t>РОЗОВО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t>РЫЖИЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-СЕРЫЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-СЕРЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-СИНИЙ</t>
+  </si>
+  <si>
+    <t>СВЕТЛО-ФИОЛЕТОВЫЙ</t>
+  </si>
+  <si>
+    <t>СЕРЕБРЯНЫЙ</t>
+  </si>
+  <si>
+    <t>СЕРО-ЖЕЛТЫЙ</t>
+  </si>
+  <si>
+    <t>СЕРО-ГОЛУБОЙ</t>
+  </si>
+  <si>
+    <t>СЕРЫЙ</t>
+  </si>
+  <si>
+    <t>СЕРЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t>СИНИЙ</t>
+  </si>
+  <si>
+    <t>СИРЕНЕВЫЙ/ЛИЛОВЫЙ</t>
+  </si>
+  <si>
+    <t>СЛИВОВЫЙ</t>
+  </si>
+  <si>
+    <t>СЛОНОВАЯ КОСТЬ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-БЕЖЕВЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-ЗЕЛЕНЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-КОРИЧНЕВЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-РОЗОВЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-СЕРЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-СЕРЫЙ МЕЛАНЖ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-СИНИЙ</t>
+  </si>
+  <si>
+    <t>ТЕМНО-ФИОЛЕТОВЫЙ</t>
+  </si>
+  <si>
+    <t>ТЕРРАКОТОВЫЙ</t>
+  </si>
+  <si>
+    <t>ФИОЛЕТОВЫЙ</t>
+  </si>
+  <si>
+    <t>ФУКСИЯ</t>
+  </si>
+  <si>
+    <t>ХАКИ</t>
+  </si>
+  <si>
+    <t>ХАКИ/ОЛИВКОВЫЙ</t>
+  </si>
+  <si>
+    <t>ЧЕРНЫЙ</t>
+  </si>
+  <si>
+    <t>ЧЕРНЫЙ/БЕЛЫЙ</t>
+  </si>
+  <si>
+    <t>ЧЕРНЫЙ/ЗОЛОТИСТЫЙ</t>
+  </si>
+  <si>
+    <t>ЧЕРНЫЙ/СЕРЫЙ</t>
+  </si>
+  <si>
+    <t>ШОКОЛАДНЫЙ</t>
+  </si>
+  <si>
+    <t>ДЕТСКИЙ</t>
+  </si>
+  <si>
+    <t>ЛЮБОЙ ВОЗРАСТ</t>
+  </si>
+  <si>
+    <t>БЕЗ УКАЗАНИЯ ВОЗРАСТА</t>
+  </si>
+  <si>
+    <t>АКФИЛ</t>
+  </si>
+  <si>
+    <t>АТЛАС</t>
+  </si>
+  <si>
+    <t>БАМБУК</t>
+  </si>
+  <si>
+    <t>БАТИСТ</t>
+  </si>
+  <si>
+    <t>БИОМАТИН</t>
+  </si>
+  <si>
+    <t>ВАФЕЛЬНОЕ ПОЛОТНО</t>
+  </si>
+  <si>
+    <t>ВЕЛЮР</t>
+  </si>
+  <si>
+    <t>ВУАЛЬ</t>
+  </si>
+  <si>
+    <t>ГАБАРДИН</t>
+  </si>
+  <si>
+    <t>ГОБЕЛЕН</t>
+  </si>
+  <si>
+    <t>ДАМАСТ</t>
+  </si>
+  <si>
+    <t>ДЖЕРСИ</t>
+  </si>
+  <si>
+    <t>ДИАГОНАЛЬ</t>
+  </si>
+  <si>
+    <t>ЖАККАРД</t>
+  </si>
+  <si>
+    <t>КРЕП</t>
+  </si>
+  <si>
+    <t>КУЛИРНАЯ ГЛАДЬ</t>
+  </si>
+  <si>
+    <t>ЛЬНЯНАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t>МАКО-САТИН</t>
+  </si>
+  <si>
+    <t>МАХРОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t>МИКРОВОЛОКНО</t>
+  </si>
+  <si>
+    <t>МИКРОПОЛИЭСТЕР</t>
+  </si>
+  <si>
+    <t>МИКРОСАТИН</t>
+  </si>
+  <si>
+    <t>МИКРОФИБРА</t>
+  </si>
+  <si>
+    <t>МИКРОФРЕШ</t>
+  </si>
+  <si>
+    <t>МОДАЛ</t>
+  </si>
+  <si>
+    <t>МУЛЕТОН</t>
+  </si>
+  <si>
+    <t>МУСЛИН</t>
+  </si>
+  <si>
+    <t>НЕТКАНЫЙ</t>
+  </si>
+  <si>
+    <t>ОКСФОРД</t>
+  </si>
+  <si>
+    <t>ОРГАНЗА</t>
+  </si>
+  <si>
+    <t>ПЕРКАЛЬ</t>
+  </si>
+  <si>
+    <t>ПИКЕ</t>
+  </si>
+  <si>
+    <t>ПЛЮШ</t>
+  </si>
+  <si>
+    <t>ПОЛИВИНИЛХЛОРИД (ПВХ)</t>
+  </si>
+  <si>
+    <t>ПОЛИКОТТОН</t>
+  </si>
+  <si>
+    <t>ПОЛИПРОПИЛЕН</t>
+  </si>
+  <si>
+    <t>ПОЛИСАТИН</t>
+  </si>
+  <si>
+    <t>ПОЛИТЕНСЕЛ</t>
+  </si>
+  <si>
+    <t>ПОЛИЭСТЕР</t>
+  </si>
+  <si>
+    <t>ПОЛИЭТИЛЕН</t>
+  </si>
+  <si>
+    <t>ПОЛИЭФИР</t>
+  </si>
+  <si>
+    <t>ПОЛОТНЯНОЕ ПЕРЕПЛЕТЕНИЕ</t>
+  </si>
+  <si>
+    <t>ПОЛУЛЁН</t>
+  </si>
+  <si>
+    <t>ПОПЛИН</t>
+  </si>
+  <si>
+    <t>РАНФОРС</t>
+  </si>
+  <si>
+    <t>РОГОЖКА</t>
+  </si>
+  <si>
+    <t>САТИН</t>
+  </si>
+  <si>
+    <t>САТИН-ЖАККАРД</t>
+  </si>
+  <si>
+    <t>САТИН-ЛЮКС</t>
+  </si>
+  <si>
+    <t>СИНТЕПОН</t>
+  </si>
+  <si>
+    <t>СИТЕЦ</t>
+  </si>
+  <si>
+    <t>СМЕСОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t>СОФТКОТТОН</t>
+  </si>
+  <si>
+    <t>СТРАЙП</t>
+  </si>
+  <si>
+    <t>СТРАЙП-САТИН</t>
+  </si>
+  <si>
+    <t>ТВИЛ</t>
+  </si>
+  <si>
+    <t>ТВИЛ-САТИН</t>
+  </si>
+  <si>
+    <t>ТЕКСТИЛЬ</t>
+  </si>
+  <si>
+    <t>ТЕКСТИЛЬНАЯ ТКАНЬ НЕРЕЛЬЕФНАЯ</t>
+  </si>
+  <si>
+    <t>ТЕНСЕЛ</t>
+  </si>
+  <si>
+    <t>ТИК</t>
+  </si>
+  <si>
+    <t>ТРИКОТАЖ</t>
+  </si>
+  <si>
+    <t>ФЛАНЕЛЬ</t>
+  </si>
+  <si>
+    <t>ФЛИС</t>
+  </si>
+  <si>
+    <t>ХЛОПКОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t>ХЛОПЧАТОБУМАЖНАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t>ШЁЛКОВАЯ ТКАНЬ</t>
+  </si>
+  <si>
+    <t>НЕ КЛАССИФИЦИРОВАНО</t>
+  </si>
+  <si>
+    <t>НЕ ОПРЕДЕЛЕНО</t>
+  </si>
+  <si>
+    <t>ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
+  </si>
+  <si>
     <t>ТР ТС 017/2011 "О безопасности продукции легкой промышленности"</t>
   </si>
   <si>
-    <t>6302 Белье постельное, столовое, туалетное и кухонное</t>
-  </si>
-  <si>
-    <t>Наименование атрибута</t>
-  </si>
-  <si>
-    <t>Значение атрибута</t>
-  </si>
-  <si>
-    <t>Модель / артикул производителя(тип)</t>
-  </si>
-  <si>
-    <t>Модель</t>
-  </si>
-  <si>
-    <t>Модель / Артикул</t>
-  </si>
-  <si>
-    <t>САЛФЕТКИ ДЛЯ СТЕКЛЯННОЙ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t>ПОДОДЕЯЛЬНИК С ВЫРЕЗОМ</t>
-  </si>
-  <si>
-    <t>ПОДОДЕЯЛЬНИК С КЛАПАНОМ</t>
-  </si>
-  <si>
-    <t>ПОДЗОР</t>
-  </si>
-  <si>
-    <t>ПРОСТЫНЯ</t>
-  </si>
-  <si>
-    <t>ПРОСТЫНЯ НА РЕЗИНКЕ</t>
-  </si>
-  <si>
-    <t>НАМАТРАСНИК</t>
-  </si>
-  <si>
-    <t>ПОКРЫВАЛО</t>
-  </si>
-  <si>
-    <t>НАВОЛОЧКА КВАДРАТНАЯ</t>
-  </si>
-  <si>
-    <t>НАВОЛОЧКА ЦИЛИНДРИЧЕСКАЯ</t>
-  </si>
-  <si>
-    <t>КОМПЛЕКТ</t>
-  </si>
-  <si>
-    <t>ГОСТЕВОЕ ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ БАННОЕ/КУПАЛЬНОЕ ПОЛОТЕНЦЕ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ ДЛЯ ПУТЕШЕСТВИЙ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ ДЛЯ РУК</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ КУХОННОЕ ДЛЯ СУШКИ</t>
-  </si>
-  <si>
-    <t>ТРЯПКА ДЛЯ МЫТЬЯ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦА ПЛЯЖНЫЕ</t>
-  </si>
-  <si>
-    <t>КОВРИК</t>
-  </si>
-  <si>
-    <t>ИЗДЕЛИЯ ДЛЯ САУНЫ</t>
-  </si>
-  <si>
-    <t>ПОЛОТЕНЦЕ ДЛЯ ЧАЙНОЙ ПОСУДЫ</t>
-  </si>
-  <si>
-    <t>АЖУРНАЯ САЛФЕТКА/САЛФЕТКА ПОД ПРИБОРЫ</t>
-  </si>
-  <si>
-    <t>ДОРОЖКА</t>
-  </si>
-  <si>
-    <t>КОМПЛЕКТ СТОЛОВОГО БЕЛЬЯ</t>
-  </si>
-  <si>
-    <t>ПОКРЫТИЕ ДЛЯ ПОДУШЕК</t>
-  </si>
-  <si>
-    <t>ПОКРЫТИЕ ДЛЯ СТУЛА</t>
-  </si>
-  <si>
-    <t>ПОКРЫТИЯ ДЛЯ ДИВАНОВ</t>
-  </si>
-  <si>
-    <t>САЛФЕТКА ПОД ПРИБОРЫ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t>САЛФЕТКИ (МНОГОРАЗОВЫЕ)</t>
-  </si>
-  <si>
-    <t>СКАТЕРТЬ (МНОГОРАЗОВАЯ)</t>
-  </si>
-  <si>
-    <t>БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>БЕЖЕВЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t>БЕЛО-РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t>БЕЛЫЙ</t>
-  </si>
-  <si>
-    <t>БЕЛЫЙ/СЕРЫЙ</t>
-  </si>
-  <si>
-    <t>БИРЮЗОВЫЙ</t>
-  </si>
-  <si>
-    <t>БОРДОВЫЙ</t>
-  </si>
-  <si>
-    <t>БРОНЗОВЫЙ</t>
-  </si>
-  <si>
-    <t>В АССОРТИМЕНТЕ</t>
-  </si>
-  <si>
-    <t>ВАНИЛЬ</t>
-  </si>
-  <si>
-    <t>ВИШНЯ</t>
-  </si>
-  <si>
-    <t>ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t>ЖЁЛТЫЙ</t>
-  </si>
-  <si>
-    <t>ЗЕЛЁНЫЙ</t>
-  </si>
-  <si>
-    <t>ЗОЛОТИСТЫЙ</t>
-  </si>
-  <si>
-    <t>ЗОЛОТОЙ</t>
-  </si>
-  <si>
-    <t>ИЗУМРУДНЫЙ</t>
-  </si>
-  <si>
-    <t>КАПУЧИНО</t>
-  </si>
-  <si>
-    <t>КИРПИЧНЫЙ</t>
-  </si>
-  <si>
-    <t>КОРАЛЛОВЫЙ</t>
-  </si>
-  <si>
-    <t>КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t>КРАСНЫЙ</t>
-  </si>
-  <si>
-    <t>ЛАЙМ</t>
-  </si>
-  <si>
-    <t>ЛЕОПАРД</t>
-  </si>
-  <si>
-    <t>МАЛИНОВЫЙ</t>
-  </si>
-  <si>
-    <t>МЕДНЫЙ</t>
-  </si>
-  <si>
-    <t>МОЛОЧНЫЙ</t>
-  </si>
-  <si>
-    <t>МЯТНЫЙ</t>
-  </si>
-  <si>
-    <t>НАТУРАЛЬНЫЙ</t>
-  </si>
-  <si>
-    <t>НИКЕЛЬ</t>
-  </si>
-  <si>
-    <t>ОЛИВКОВЫЙ</t>
-  </si>
-  <si>
-    <t>ОРАНЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>ПЕСОЧНЫЙ</t>
-  </si>
-  <si>
-    <t>ПЕРСИКОВЫЙ</t>
-  </si>
-  <si>
-    <t>ПРОЗРАЧНЫЙ</t>
-  </si>
-  <si>
-    <t>ПУРПУРНЫЙ</t>
-  </si>
-  <si>
-    <t>РАЗНОЦВЕТНЫЙ</t>
-  </si>
-  <si>
-    <t>РОЗОВО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t>РЫЖИЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-СЕРЫЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-СЕРЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-СИНИЙ</t>
-  </si>
-  <si>
-    <t>СВЕТЛО-ФИОЛЕТОВЫЙ</t>
-  </si>
-  <si>
-    <t>СЕРЕБРЯНЫЙ</t>
-  </si>
-  <si>
-    <t>СЕРО-ЖЕЛТЫЙ</t>
-  </si>
-  <si>
-    <t>СЕРО-ГОЛУБОЙ</t>
-  </si>
-  <si>
-    <t>СЕРЫЙ</t>
-  </si>
-  <si>
-    <t>СЕРЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t>СИНИЙ</t>
-  </si>
-  <si>
-    <t>СИРЕНЕВЫЙ/ЛИЛОВЫЙ</t>
-  </si>
-  <si>
-    <t>СЛИВОВЫЙ</t>
-  </si>
-  <si>
-    <t>СЛОНОВАЯ КОСТЬ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-БЕЖЕВЫЙ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-КОРИЧНЕВЫЙ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-РОЗОВЫЙ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-СЕРЫЙ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-СЕРЫЙ МЕЛАНЖ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-СИНИЙ</t>
-  </si>
-  <si>
-    <t>ТЕМНО-ФИОЛЕТОВЫЙ</t>
-  </si>
-  <si>
-    <t>ТЕРРАКОТОВЫЙ</t>
-  </si>
-  <si>
-    <t>ФИОЛЕТОВЫЙ</t>
-  </si>
-  <si>
-    <t>ФУКСИЯ</t>
-  </si>
-  <si>
-    <t>ХАКИ</t>
-  </si>
-  <si>
-    <t>ХАКИ/ОЛИВКОВЫЙ</t>
-  </si>
-  <si>
-    <t>ЧЕРНЫЙ</t>
-  </si>
-  <si>
-    <t>ЧЕРНЫЙ/БЕЛЫЙ</t>
-  </si>
-  <si>
-    <t>ЧЕРНЫЙ/ЗОЛОТИСТЫЙ</t>
-  </si>
-  <si>
-    <t>ЧЕРНЫЙ/СЕРЫЙ</t>
-  </si>
-  <si>
-    <t>ШОКОЛАДНЫЙ</t>
-  </si>
-  <si>
-    <t>ДЕТСКИЙ</t>
-  </si>
-  <si>
-    <t>ЛЮБОЙ ВОЗРАСТ</t>
-  </si>
-  <si>
-    <t>БЕЗ УКАЗАНИЯ ВОЗРАСТА</t>
-  </si>
-  <si>
-    <t>АКФИЛ</t>
-  </si>
-  <si>
-    <t>АТЛАС</t>
-  </si>
-  <si>
-    <t>БАМБУК</t>
-  </si>
-  <si>
-    <t>БАТИСТ</t>
-  </si>
-  <si>
-    <t>БИОМАТИН</t>
-  </si>
-  <si>
-    <t>ВАФЕЛЬНОЕ ПОЛОТНО</t>
-  </si>
-  <si>
-    <t>ВЕЛЮР</t>
-  </si>
-  <si>
-    <t>ВУАЛЬ</t>
-  </si>
-  <si>
-    <t>ГАБАРДИН</t>
-  </si>
-  <si>
-    <t>ГОБЕЛЕН</t>
-  </si>
-  <si>
-    <t>ДАМАСТ</t>
-  </si>
-  <si>
-    <t>ДЖЕРСИ</t>
-  </si>
-  <si>
-    <t>ДИАГОНАЛЬ</t>
-  </si>
-  <si>
-    <t>ЖАККАРД</t>
-  </si>
-  <si>
-    <t>КРЕП</t>
-  </si>
-  <si>
-    <t>КУЛИРНАЯ ГЛАДЬ</t>
-  </si>
-  <si>
-    <t>ЛЬНЯНАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t>МАКО-САТИН</t>
-  </si>
-  <si>
-    <t>МАХРОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t>МИКРОВОЛОКНО</t>
-  </si>
-  <si>
-    <t>МИКРОПОЛИЭСТЕР</t>
-  </si>
-  <si>
-    <t>МИКРОСАТИН</t>
-  </si>
-  <si>
-    <t>МИКРОФИБРА</t>
-  </si>
-  <si>
-    <t>МИКРОФРЕШ</t>
-  </si>
-  <si>
-    <t>МОДАЛ</t>
-  </si>
-  <si>
-    <t>МУЛЕТОН</t>
-  </si>
-  <si>
-    <t>МУСЛИН</t>
-  </si>
-  <si>
-    <t>НЕТКАНЫЙ</t>
-  </si>
-  <si>
-    <t>ОКСФОРД</t>
-  </si>
-  <si>
-    <t>ОРГАНЗА</t>
-  </si>
-  <si>
-    <t>ПЕРКАЛЬ</t>
-  </si>
-  <si>
-    <t>ПИКЕ</t>
-  </si>
-  <si>
-    <t>ПЛЮШ</t>
-  </si>
-  <si>
-    <t>ПОЛИВИНИЛХЛОРИД (ПВХ)</t>
-  </si>
-  <si>
-    <t>ПОЛИКОТТОН</t>
-  </si>
-  <si>
-    <t>ПОЛИПРОПИЛЕН</t>
-  </si>
-  <si>
-    <t>ПОЛИСАТИН</t>
-  </si>
-  <si>
-    <t>ПОЛИТЕНСЕЛ</t>
-  </si>
-  <si>
-    <t>ПОЛИЭСТЕР</t>
-  </si>
-  <si>
-    <t>ПОЛИЭТИЛЕН</t>
-  </si>
-  <si>
-    <t>ПОЛИЭФИР</t>
-  </si>
-  <si>
-    <t>ПОЛОТНЯНОЕ ПЕРЕПЛЕТЕНИЕ</t>
-  </si>
-  <si>
-    <t>ПОЛУЛЁН</t>
-  </si>
-  <si>
-    <t>ПОПЛИН</t>
-  </si>
-  <si>
-    <t>РАНФОРС</t>
-  </si>
-  <si>
-    <t>РОГОЖКА</t>
-  </si>
-  <si>
-    <t>САТИН</t>
-  </si>
-  <si>
-    <t>САТИН-ЖАККАРД</t>
-  </si>
-  <si>
-    <t>САТИН-ЛЮКС</t>
-  </si>
-  <si>
-    <t>СИНТЕПОН</t>
-  </si>
-  <si>
-    <t>СИТЕЦ</t>
-  </si>
-  <si>
-    <t>СМЕСОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t>СОФТКОТТОН</t>
-  </si>
-  <si>
-    <t>СТРАЙП</t>
-  </si>
-  <si>
-    <t>СТРАЙП-САТИН</t>
-  </si>
-  <si>
-    <t>ТВИЛ</t>
-  </si>
-  <si>
-    <t>ТВИЛ-САТИН</t>
-  </si>
-  <si>
-    <t>ТЕКСТИЛЬ</t>
-  </si>
-  <si>
-    <t>ТЕКСТИЛЬНАЯ ТКАНЬ НЕРЕЛЬЕФНАЯ</t>
-  </si>
-  <si>
-    <t>ТЕНСЕЛ</t>
-  </si>
-  <si>
-    <t>ТИК</t>
-  </si>
-  <si>
-    <t>ТРИКОТАЖ</t>
-  </si>
-  <si>
-    <t>ФЛАНЕЛЬ</t>
-  </si>
-  <si>
-    <t>ФЛИС</t>
-  </si>
-  <si>
-    <t>ХЛОПКОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t>ХЛОПЧАТОБУМАЖНАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t>ШЁЛКОВАЯ ТКАНЬ</t>
-  </si>
-  <si>
-    <t>НЕ КЛАССИФИЦИРОВАНО</t>
-  </si>
-  <si>
-    <t>НЕ ОПРЕДЕЛЕНО</t>
-  </si>
-  <si>
-    <t>ТР ТС 007/2011 "О безопасности продукции, предназначенной для детей и подростков"</t>
-  </si>
-  <si>
     <t>ТР ТС 005/2011 "О безопасности упаковки"</t>
   </si>
   <si>
     <t>Действие технических регламентов не распространяется</t>
+  </si>
+  <si>
+    <t>00-00201633</t>
   </si>
 </sst>
 </file>
@@ -719,24 +726,24 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <family val="2"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -764,7 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="E3E3E3"/>
+        <fgColor rgb="FFE3E3E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -789,17 +796,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -808,7 +823,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -820,32 +835,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1123,26 +1121,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="73" zoomScaleNormal="100">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="5" width="35" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
-    <col min="14" max="14" width="47" customWidth="1"/>
-    <col min="15" max="15" width="53" customWidth="1"/>
-    <col min="16" max="1024" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="102.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>29</v>
@@ -1326,7 +1314,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1339,10 +1327,15 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
@@ -1352,46 +1345,26 @@
       <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
+      <c r="C6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1407,7 +1380,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1423,7 +1396,7 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1439,7 +1412,7 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1453,7 +1426,7 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1467,7 +1440,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1482,17 +1455,7 @@
       <c r="N12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B5:B12"/>
-  <conditionalFormatting sqref="B5:B12"/>
-  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1500,11 +1463,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
@@ -1512,10 +1475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -3062,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3094,7 +3057,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" scale="0" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="0"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
